--- a/create_leakage_scenarios.xlsx
+++ b/create_leakage_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucy-my.sharepoint.com/personal/mkiria01_ucy_ac_cy/Documents/GITHUB/WDN-Dataset-Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{2F542FFC-0DE4-40CA-B56A-2D28747061C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{0F0289E9-8A46-45FF-831A-4DC626246192}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{F894360A-DD72-4ABA-A24A-C3E0C20D13F7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>scenario</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>121</t>
+  </si>
+  <si>
+    <t>abrupt</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,14 +485,12 @@
         <v>43131.996527777781</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>1.1842999999999999E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>43125.354166666664</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
@@ -502,21 +503,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D653371BCFF1A548A9528A66D553DF4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4b0292876563dd01334f32600faea9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8629473f-95fa-4c6e-b357-195ffae93069" xmlns:ns4="295eb239-bd93-4f68-a376-d5791a2db291" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a57372c49d8016c83ddf057ea351e794" ns3:_="" ns4:_="">
     <xsd:import namespace="8629473f-95fa-4c6e-b357-195ffae93069"/>
@@ -745,32 +731,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EFE31D4-504C-4D90-9A60-50CB7265A2C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="295eb239-bd93-4f68-a376-d5791a2db291"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8629473f-95fa-4c6e-b357-195ffae93069"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{601637A7-0187-4F30-B4EA-344CFC765FE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{883DECAC-DC86-4605-B822-B32F2987BEAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -787,4 +763,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{601637A7-0187-4F30-B4EA-344CFC765FE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EFE31D4-504C-4D90-9A60-50CB7265A2C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="295eb239-bd93-4f68-a376-d5791a2db291"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8629473f-95fa-4c6e-b357-195ffae93069"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>